--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\DemoSalesforce\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\Salesforce_Automation-Demo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4191F-9EB0-4053-B2C9-EC311B006B11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A4218-6F79-4468-807F-CF44A5F4953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
     <sheet name="Account" sheetId="3" r:id="rId2"/>
     <sheet name="Donation" sheetId="4" r:id="rId3"/>
+    <sheet name="Church_Alliance" sheetId="5" r:id="rId4"/>
+    <sheet name="Ministry_Alliance" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
   <si>
     <t>FirstName</t>
   </si>
@@ -38,27 +40,9 @@
     <t>TCN</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
     <t>SpouseName</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
     <t>MailingStreet</t>
   </si>
   <si>
@@ -74,9 +58,6 @@
     <t>MailingCountry</t>
   </si>
   <si>
-    <t>Test Contact6</t>
-  </si>
-  <si>
     <t>QA6</t>
   </si>
   <si>
@@ -92,12 +73,6 @@
     <t>Test State 2</t>
   </si>
   <si>
-    <t>79234</t>
-  </si>
-  <si>
-    <t>77422</t>
-  </si>
-  <si>
     <t>Test Country</t>
   </si>
   <si>
@@ -197,49 +172,466 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Test Contact7</t>
-  </si>
-  <si>
-    <t>QA7</t>
-  </si>
-  <si>
-    <t>Test Mailing Street 11</t>
-  </si>
-  <si>
-    <t>Test Mailing Street 21</t>
-  </si>
-  <si>
-    <t>nallavan25@yopmail.com</t>
-  </si>
-  <si>
-    <t>nallavan24@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test Mailing Street 22</t>
-  </si>
-  <si>
     <t>Test Mailing City3</t>
   </si>
   <si>
-    <t>QA8</t>
-  </si>
-  <si>
-    <t>Test Contact8</t>
-  </si>
-  <si>
     <t>Test State 3</t>
   </si>
   <si>
     <t>79235</t>
   </si>
   <si>
-    <t>nallavan26@yopmail.com</t>
-  </si>
-  <si>
     <t>BirthDate</t>
   </si>
   <si>
     <t>11/7/1992</t>
+  </si>
+  <si>
+    <t>Church Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Church Email</t>
+  </si>
+  <si>
+    <t>Church Phone</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
+    <t>How Did You Hear About US</t>
+  </si>
+  <si>
+    <t>Denominatoin</t>
+  </si>
+  <si>
+    <t>Lead Title</t>
+  </si>
+  <si>
+    <t>Lead First Name</t>
+  </si>
+  <si>
+    <t>Lead Last Name</t>
+  </si>
+  <si>
+    <t>Lead Email</t>
+  </si>
+  <si>
+    <t>Lead Phone</t>
+  </si>
+  <si>
+    <t>Primary Title</t>
+  </si>
+  <si>
+    <t>Primary First Name</t>
+  </si>
+  <si>
+    <t>Primary Last Name</t>
+  </si>
+  <si>
+    <t>Primary Email</t>
+  </si>
+  <si>
+    <t>Primary Phone</t>
+  </si>
+  <si>
+    <t>Attorney Last Name</t>
+  </si>
+  <si>
+    <t>Attorney First Name</t>
+  </si>
+  <si>
+    <t>Attorney Email</t>
+  </si>
+  <si>
+    <t>Attorney State</t>
+  </si>
+  <si>
+    <t>Church Promo Code</t>
+  </si>
+  <si>
+    <t>Payer First Name</t>
+  </si>
+  <si>
+    <t>Payer Last Name</t>
+  </si>
+  <si>
+    <t>Payer Address</t>
+  </si>
+  <si>
+    <t>Payer Address 2</t>
+  </si>
+  <si>
+    <t>Payer City</t>
+  </si>
+  <si>
+    <t>Payer State</t>
+  </si>
+  <si>
+    <t>Payer Zip Code</t>
+  </si>
+  <si>
+    <t>Card Year</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
+    <t>Card No</t>
+  </si>
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t>Ministry Name</t>
+  </si>
+  <si>
+    <t>Ministry Email</t>
+  </si>
+  <si>
+    <t>Ministry Phone</t>
+  </si>
+  <si>
+    <t>Ministry Promo Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437 NE. College Dr. </t>
+  </si>
+  <si>
+    <t>Chicago Heights</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>89833</t>
+  </si>
+  <si>
+    <t>Radio Advertisement</t>
+  </si>
+  <si>
+    <t>Eastern Orthodox</t>
+  </si>
+  <si>
+    <t>Senior_Pastor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger	</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence	</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellis	</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>TestMSTQA</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Test address1</t>
+  </si>
+  <si>
+    <t>Test Address 2</t>
+  </si>
+  <si>
+    <t>Test City</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>11/22</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>Church Size</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>Attorney City</t>
+  </si>
+  <si>
+    <t>Illinois Test</t>
+  </si>
+  <si>
+    <t>PayerZip Code</t>
+  </si>
+  <si>
+    <t>bishop2@yopmail.com</t>
+  </si>
+  <si>
+    <t>8823938753</t>
+  </si>
+  <si>
+    <t>JeanMSTQA_Church</t>
+  </si>
+  <si>
+    <t>page2@yopmail.com</t>
+  </si>
+  <si>
+    <t>98894884767</t>
+  </si>
+  <si>
+    <t>rose2@yopmail.com</t>
+  </si>
+  <si>
+    <t>8823938767</t>
+  </si>
+  <si>
+    <t>QA1</t>
+  </si>
+  <si>
+    <t>Spouse1</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 1</t>
+  </si>
+  <si>
+    <t>77426</t>
+  </si>
+  <si>
+    <t>testauto1@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestCacse No</t>
+  </si>
+  <si>
+    <t>ADF_REL-01</t>
+  </si>
+  <si>
+    <t>ADF_REL-02</t>
+  </si>
+  <si>
+    <t>ADF_REL-03</t>
+  </si>
+  <si>
+    <t>Test Automation1</t>
+  </si>
+  <si>
+    <t>Spouse2</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 2</t>
+  </si>
+  <si>
+    <t>77427</t>
+  </si>
+  <si>
+    <t>testauto2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Test Automation4</t>
+  </si>
+  <si>
+    <t>Test Automation5</t>
+  </si>
+  <si>
+    <t>Test Automation6</t>
+  </si>
+  <si>
+    <t>QA4</t>
+  </si>
+  <si>
+    <t>QA5</t>
+  </si>
+  <si>
+    <t>QA3_Greeting</t>
+  </si>
+  <si>
+    <t>Spouse3</t>
+  </si>
+  <si>
+    <t>QA2-Salutation</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 3</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 4</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 5</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 6</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 7</t>
+  </si>
+  <si>
+    <t>Test Mailing City4</t>
+  </si>
+  <si>
+    <t>Test Mailing City5</t>
+  </si>
+  <si>
+    <t>Test Mailing City6</t>
+  </si>
+  <si>
+    <t>Test Mailing City7</t>
+  </si>
+  <si>
+    <t>Test State 4</t>
+  </si>
+  <si>
+    <t>Test State 5</t>
+  </si>
+  <si>
+    <t>Test State 6</t>
+  </si>
+  <si>
+    <t>Test State 7</t>
+  </si>
+  <si>
+    <t>79236</t>
+  </si>
+  <si>
+    <t>79237</t>
+  </si>
+  <si>
+    <t>79238</t>
+  </si>
+  <si>
+    <t>79239</t>
+  </si>
+  <si>
+    <t>Test_QA</t>
+  </si>
+  <si>
+    <t>ADF_REL-04</t>
+  </si>
+  <si>
+    <t>ADF_REL-05</t>
+  </si>
+  <si>
+    <t>ADF_REL-06</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>9238848958</t>
+  </si>
+  <si>
+    <t>9238848959</t>
+  </si>
+  <si>
+    <t>9238848910</t>
+  </si>
+  <si>
+    <t>9238848911</t>
+  </si>
+  <si>
+    <t>9238848912</t>
+  </si>
+  <si>
+    <t>9238848913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile </t>
+  </si>
+  <si>
+    <t>7983885788</t>
+  </si>
+  <si>
+    <t>7983885787</t>
+  </si>
+  <si>
+    <t>7983885786</t>
+  </si>
+  <si>
+    <t>7983885785</t>
+  </si>
+  <si>
+    <t>7983885784</t>
+  </si>
+  <si>
+    <t>7983885783</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>8039848958</t>
+  </si>
+  <si>
+    <t>8039848957</t>
+  </si>
+  <si>
+    <t>8039848956</t>
+  </si>
+  <si>
+    <t>8039848955</t>
+  </si>
+  <si>
+    <t>8039848954</t>
+  </si>
+  <si>
+    <t>8039848953</t>
+  </si>
+  <si>
+    <t>Work Phone Extension</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Preffered Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -294,12 +686,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,30 +975,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -612,138 +1012,348 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
+      <c r="L3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>61</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>60</v>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R5" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>70</v>
+      <c r="G7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{3A54CB49-4D81-4A1C-B61C-5E4DE21185F5}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{B249AE59-C7ED-4189-9869-73C7A576250A}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3A54CB49-4D81-4A1C-B61C-5E4DE21185F5}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{25A5AE6F-951F-4B38-A1D9-F77FEF8505F2}"/>
+    <hyperlink ref="L5:L7" r:id="rId4" display="testauto2@yopmail.com" xr:uid="{2247CD11-3722-4005-A865-F540225EF96A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -752,7 +1362,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,91 +1381,91 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -885,6 +1495,77 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56689F5D-9C79-45D5-8142-2425B09090D7}">
+  <dimension ref="A1:AL17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" customWidth="1"/>
+    <col min="29" max="29" width="25.7109375" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="31" max="31" width="31.42578125" customWidth="1"/>
+    <col min="32" max="33" width="19.28515625" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" customWidth="1"/>
+    <col min="37" max="37" width="30.5703125" customWidth="1"/>
+    <col min="38" max="38" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
@@ -895,6 +1576,395 @@
       </c>
       <c r="E1" t="s">
         <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{009D254A-F33C-44D5-9F53-2CBE36E8438D}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{5989FE7B-9B25-43F0-A601-D63E9B92E3E2}"/>
+    <hyperlink ref="U2" r:id="rId3" xr:uid="{BB9AB100-A6F1-498E-A0EB-FDD0404075B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D445812C-EE3A-4F99-BA56-3F0DBE14F126}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="15" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" customWidth="1"/>
+    <col min="32" max="32" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\Salesforce_Automation-Demo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A4218-6F79-4468-807F-CF44A5F4953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E7645-2BE1-49FD-9894-4DBB2335176C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Donation" sheetId="4" r:id="rId3"/>
     <sheet name="Church_Alliance" sheetId="5" r:id="rId4"/>
     <sheet name="Ministry_Alliance" sheetId="6" r:id="rId5"/>
+    <sheet name="Contact_Selection" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="323">
   <si>
     <t>FirstName</t>
   </si>
@@ -100,9 +101,6 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>TC6</t>
-  </si>
-  <si>
     <t>TestOrgAccount-Jun1</t>
   </si>
   <si>
@@ -415,9 +413,6 @@
     <t>8823938767</t>
   </si>
   <si>
-    <t>QA1</t>
-  </si>
-  <si>
     <t>Spouse1</t>
   </si>
   <si>
@@ -442,9 +437,6 @@
     <t>ADF_REL-03</t>
   </si>
   <si>
-    <t>Test Automation1</t>
-  </si>
-  <si>
     <t>Spouse2</t>
   </si>
   <si>
@@ -466,30 +458,15 @@
     <t>NickName</t>
   </si>
   <si>
-    <t>Test Automation4</t>
-  </si>
-  <si>
-    <t>Test Automation5</t>
-  </si>
-  <si>
-    <t>Test Automation6</t>
-  </si>
-  <si>
     <t>QA4</t>
   </si>
   <si>
     <t>QA5</t>
   </si>
   <si>
-    <t>QA3_Greeting</t>
-  </si>
-  <si>
     <t>Spouse3</t>
   </si>
   <si>
-    <t>QA2-Salutation</t>
-  </si>
-  <si>
     <t>Test Mailing Street 3</t>
   </si>
   <si>
@@ -565,15 +542,6 @@
     <t>9238848910</t>
   </si>
   <si>
-    <t>9238848911</t>
-  </si>
-  <si>
-    <t>9238848912</t>
-  </si>
-  <si>
-    <t>9238848913</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mobile </t>
   </si>
   <si>
@@ -586,15 +554,6 @@
     <t>7983885786</t>
   </si>
   <si>
-    <t>7983885785</t>
-  </si>
-  <si>
-    <t>7983885784</t>
-  </si>
-  <si>
-    <t>7983885783</t>
-  </si>
-  <si>
     <t>Work Phone</t>
   </si>
   <si>
@@ -607,15 +566,6 @@
     <t>8039848956</t>
   </si>
   <si>
-    <t>8039848955</t>
-  </si>
-  <si>
-    <t>8039848954</t>
-  </si>
-  <si>
-    <t>8039848953</t>
-  </si>
-  <si>
     <t>Work Phone Extension</t>
   </si>
   <si>
@@ -632,6 +582,423 @@
   </si>
   <si>
     <t>Work</t>
+  </si>
+  <si>
+    <t>QA7</t>
+  </si>
+  <si>
+    <t>QA8-Salutation</t>
+  </si>
+  <si>
+    <t>QA9_Greeting</t>
+  </si>
+  <si>
+    <t>ADF_REL-11</t>
+  </si>
+  <si>
+    <t>ADF_REL-07</t>
+  </si>
+  <si>
+    <t>ADF_REL-08</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 8</t>
+  </si>
+  <si>
+    <t>Test Mailing City8</t>
+  </si>
+  <si>
+    <t>Test State 8</t>
+  </si>
+  <si>
+    <t>79240</t>
+  </si>
+  <si>
+    <t>(923) 884-8913</t>
+  </si>
+  <si>
+    <t>(798) 388-5785</t>
+  </si>
+  <si>
+    <t>(798) 388-5786</t>
+  </si>
+  <si>
+    <t>(798) 388-5787</t>
+  </si>
+  <si>
+    <t>(798) 388-5788</t>
+  </si>
+  <si>
+    <t>(798) 388-5789</t>
+  </si>
+  <si>
+    <t>(923) 884-8914</t>
+  </si>
+  <si>
+    <t>(923) 884-8915</t>
+  </si>
+  <si>
+    <t>(923) 884-8916</t>
+  </si>
+  <si>
+    <t>(923) 884-8917</t>
+  </si>
+  <si>
+    <t>(803) 984-8955</t>
+  </si>
+  <si>
+    <t>(803) 984-8956</t>
+  </si>
+  <si>
+    <t>(803) 984-8957</t>
+  </si>
+  <si>
+    <t>(803) 984-8958</t>
+  </si>
+  <si>
+    <t>(803) 984-8959</t>
+  </si>
+  <si>
+    <t>10000878</t>
+  </si>
+  <si>
+    <t>ADF_REL-14</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>ADF_REL-33</t>
+  </si>
+  <si>
+    <t>JuanaMoore_Church $200.00 Membership 10/24/2018</t>
+  </si>
+  <si>
+    <t>Contact Value</t>
+  </si>
+  <si>
+    <t>ADF_REL-09</t>
+  </si>
+  <si>
+    <t>ADF_REL-10</t>
+  </si>
+  <si>
+    <t>ADF_REL-12</t>
+  </si>
+  <si>
+    <t>ADF_REL-13</t>
+  </si>
+  <si>
+    <t>ADF_REL-15</t>
+  </si>
+  <si>
+    <t>ADF_REL-16</t>
+  </si>
+  <si>
+    <t>ADF_REL-17</t>
+  </si>
+  <si>
+    <t>ADF_REL-36</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>QA9</t>
+  </si>
+  <si>
+    <t>ADF_REL-34</t>
+  </si>
+  <si>
+    <t>Earnest Stevenson</t>
+  </si>
+  <si>
+    <t>ADF_REL-23</t>
+  </si>
+  <si>
+    <t>ADF_REL-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lisa</t>
+  </si>
+  <si>
+    <t>ADF_REL-21</t>
+  </si>
+  <si>
+    <t>ADF_REL-22</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>ADF_REL-24</t>
+  </si>
+  <si>
+    <t>ADF_REL-25</t>
+  </si>
+  <si>
+    <t>IdaMyers</t>
+  </si>
+  <si>
+    <t>ADF_REL-26</t>
+  </si>
+  <si>
+    <t>ADF_REL-27</t>
+  </si>
+  <si>
+    <t>Betsy</t>
+  </si>
+  <si>
+    <t>ADF_REL-28</t>
+  </si>
+  <si>
+    <t>ADF_REL-29</t>
+  </si>
+  <si>
+    <t>ADF_REL-30</t>
+  </si>
+  <si>
+    <t>ADF_REL-31</t>
+  </si>
+  <si>
+    <t>ADF_REL-32</t>
+  </si>
+  <si>
+    <t>Test Ambassador1</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Classification Value</t>
+  </si>
+  <si>
+    <t>ADF_REL-35</t>
+  </si>
+  <si>
+    <t>Board Member</t>
+  </si>
+  <si>
+    <t>Test Automation 2</t>
+  </si>
+  <si>
+    <t>Ambassador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger </t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Contact Select</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Donation Select</t>
+  </si>
+  <si>
+    <t>JuanaMoore</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Classfication</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
+  </si>
+  <si>
+    <t>ADF_REL-37</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>10000889</t>
+  </si>
+  <si>
+    <t>Leon Greene</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>ExstingClassification</t>
+  </si>
+  <si>
+    <t>MOB-AMB captain</t>
+  </si>
+  <si>
+    <t>0031b00000RjbXV</t>
+  </si>
+  <si>
+    <t>0031b00000T0osm</t>
+  </si>
+  <si>
+    <t>0031b00000RVR7n</t>
+  </si>
+  <si>
+    <t>ADF_REL-38</t>
+  </si>
+  <si>
+    <t>ADF_REL-39</t>
+  </si>
+  <si>
+    <t>ADF_REL-40</t>
+  </si>
+  <si>
+    <t>ADF_REL-41</t>
+  </si>
+  <si>
+    <t>ADF_REL-42</t>
+  </si>
+  <si>
+    <t>ADF_REL-43</t>
+  </si>
+  <si>
+    <t>ADF_REL-44</t>
+  </si>
+  <si>
+    <t>ADF_REL-45</t>
+  </si>
+  <si>
+    <t>ADF_REL-46</t>
+  </si>
+  <si>
+    <t>ADF_REL-47</t>
+  </si>
+  <si>
+    <t>ADF_REL-48</t>
+  </si>
+  <si>
+    <t>ADF_REL-49</t>
+  </si>
+  <si>
+    <t>ADF_REL-50</t>
+  </si>
+  <si>
+    <t>0031b00000T1wm4</t>
+  </si>
+  <si>
+    <t>Contact_Record Id</t>
+  </si>
+  <si>
+    <t>0031b00000RyUIX</t>
+  </si>
+  <si>
+    <t>Account Select</t>
+  </si>
+  <si>
+    <t>LawrenceWilkins_Church</t>
+  </si>
+  <si>
+    <t>ADF_REL-20</t>
+  </si>
+  <si>
+    <t>Test Automation 3</t>
+  </si>
+  <si>
+    <t>Walter Holt Household</t>
+  </si>
+  <si>
+    <t>0031b00000T28Qi</t>
+  </si>
+  <si>
+    <t>MirandaBurke</t>
+  </si>
+  <si>
+    <t>JeanBishop</t>
+  </si>
+  <si>
+    <t>Contact_Value</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Lawren</t>
+  </si>
+  <si>
+    <t>Test Ambassador 3</t>
+  </si>
+  <si>
+    <t>Duplicate Contact</t>
+  </si>
+  <si>
+    <t>Test Automation15</t>
+  </si>
+  <si>
+    <t>QA10</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 10</t>
+  </si>
+  <si>
+    <t>Test Mailing City10</t>
+  </si>
+  <si>
+    <t>Test State 10</t>
+  </si>
+  <si>
+    <t>brock@yopmail.com</t>
+  </si>
+  <si>
+    <t>Pedro Brock</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>ADF_REL-19</t>
+  </si>
+  <si>
+    <t>MirandaBurke_Church</t>
+  </si>
+  <si>
+    <t>ContactRole Value</t>
+  </si>
+  <si>
+    <t>ContactRole Amount</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Test Automation16</t>
+  </si>
+  <si>
+    <t>Test Automation17</t>
+  </si>
+  <si>
+    <t>Test Automation18</t>
+  </si>
+  <si>
+    <t>Test Automation19</t>
+  </si>
+  <si>
+    <t>Test Automation20</t>
+  </si>
+  <si>
+    <t>Test Automation21</t>
   </si>
 </sst>
 </file>
@@ -975,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,11 +1367,13 @@
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1013,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1040,42 +1409,48 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" t="s">
         <v>174</v>
       </c>
-      <c r="O1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" t="s">
-        <v>188</v>
-      </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="S1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1084,41 +1459,41 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1127,233 +1502,463 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="R5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="R6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="S25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="S26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{3A54CB49-4D81-4A1C-B61C-5E4DE21185F5}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{25A5AE6F-951F-4B38-A1D9-F77FEF8505F2}"/>
-    <hyperlink ref="L5:L7" r:id="rId4" display="testauto2@yopmail.com" xr:uid="{2247CD11-3722-4005-A865-F540225EF96A}"/>
+    <hyperlink ref="L29" r:id="rId2" xr:uid="{02C5672F-E7E2-4B51-B2D6-3FB90F98ABFE}"/>
+    <hyperlink ref="L10" r:id="rId3" xr:uid="{782553DD-8FA3-498E-A566-6DF6D1BE6C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1362,12 +1967,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -1377,11 +1982,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+      <c r="A1" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1404,68 +2009,68 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1475,37 +2080,235 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA7CEF-DD08-47C3-9813-E1493B0F8BB1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
+      <c r="H1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10"/>
+      <c r="D10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,115 +2369,115 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>68</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
         <v>71</v>
       </c>
-      <c r="W1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" t="s">
-        <v>72</v>
-      </c>
       <c r="Y1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" t="s">
-        <v>82</v>
-      </c>
       <c r="AH1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>87</v>
-      </c>
       <c r="AK1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" t="s">
         <v>84</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
@@ -1682,112 +2485,112 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="W2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AL2" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -1871,103 +2674,427 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" t="s">
-        <v>91</v>
-      </c>
       <c r="V1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>84</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9F2BE3-5220-47BC-8CAC-18720E1192B0}">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="U12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="T13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="T14" t="s">
+        <v>253</v>
+      </c>
+      <c r="U14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\Salesforce_Automation-Demo\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\ADF_Project_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A4218-6F79-4468-807F-CF44A5F4953E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE2206-EF90-4960-A412-101348457C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Donation" sheetId="4" r:id="rId3"/>
     <sheet name="Church_Alliance" sheetId="5" r:id="rId4"/>
     <sheet name="Ministry_Alliance" sheetId="6" r:id="rId5"/>
+    <sheet name="Contact_Selection" sheetId="8" r:id="rId6"/>
+    <sheet name="Campaign_Segment" sheetId="9" r:id="rId7"/>
+    <sheet name="Relationship" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="344">
   <si>
     <t>FirstName</t>
   </si>
@@ -100,18 +103,12 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>TC6</t>
-  </si>
-  <si>
     <t>TestOrgAccount-Jun1</t>
   </si>
   <si>
     <t>TestOrgAccount-Jun2</t>
   </si>
   <si>
-    <t>TestOrgAccount-Jun3</t>
-  </si>
-  <si>
     <t>Test Billing Street 1</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t>8823938767</t>
   </si>
   <si>
-    <t>QA1</t>
-  </si>
-  <si>
     <t>Spouse1</t>
   </si>
   <si>
@@ -442,9 +436,6 @@
     <t>ADF_REL-03</t>
   </si>
   <si>
-    <t>Test Automation1</t>
-  </si>
-  <si>
     <t>Spouse2</t>
   </si>
   <si>
@@ -466,30 +457,15 @@
     <t>NickName</t>
   </si>
   <si>
-    <t>Test Automation4</t>
-  </si>
-  <si>
-    <t>Test Automation5</t>
-  </si>
-  <si>
-    <t>Test Automation6</t>
-  </si>
-  <si>
     <t>QA4</t>
   </si>
   <si>
     <t>QA5</t>
   </si>
   <si>
-    <t>QA3_Greeting</t>
-  </si>
-  <si>
     <t>Spouse3</t>
   </si>
   <si>
-    <t>QA2-Salutation</t>
-  </si>
-  <si>
     <t>Test Mailing Street 3</t>
   </si>
   <si>
@@ -565,36 +541,6 @@
     <t>9238848910</t>
   </si>
   <si>
-    <t>9238848911</t>
-  </si>
-  <si>
-    <t>9238848912</t>
-  </si>
-  <si>
-    <t>9238848913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile </t>
-  </si>
-  <si>
-    <t>7983885788</t>
-  </si>
-  <si>
-    <t>7983885787</t>
-  </si>
-  <si>
-    <t>7983885786</t>
-  </si>
-  <si>
-    <t>7983885785</t>
-  </si>
-  <si>
-    <t>7983885784</t>
-  </si>
-  <si>
-    <t>7983885783</t>
-  </si>
-  <si>
     <t>Work Phone</t>
   </si>
   <si>
@@ -607,15 +553,6 @@
     <t>8039848956</t>
   </si>
   <si>
-    <t>8039848955</t>
-  </si>
-  <si>
-    <t>8039848954</t>
-  </si>
-  <si>
-    <t>8039848953</t>
-  </si>
-  <si>
     <t>Work Phone Extension</t>
   </si>
   <si>
@@ -632,6 +569,501 @@
   </si>
   <si>
     <t>Work</t>
+  </si>
+  <si>
+    <t>QA8-Salutation</t>
+  </si>
+  <si>
+    <t>QA9_Greeting</t>
+  </si>
+  <si>
+    <t>ADF_REL-11</t>
+  </si>
+  <si>
+    <t>ADF_REL-07</t>
+  </si>
+  <si>
+    <t>ADF_REL-08</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 8</t>
+  </si>
+  <si>
+    <t>Test Mailing City8</t>
+  </si>
+  <si>
+    <t>Test State 8</t>
+  </si>
+  <si>
+    <t>79240</t>
+  </si>
+  <si>
+    <t>(923) 884-8913</t>
+  </si>
+  <si>
+    <t>(923) 884-8914</t>
+  </si>
+  <si>
+    <t>(923) 884-8915</t>
+  </si>
+  <si>
+    <t>(923) 884-8916</t>
+  </si>
+  <si>
+    <t>(923) 884-8917</t>
+  </si>
+  <si>
+    <t>(803) 984-8955</t>
+  </si>
+  <si>
+    <t>(803) 984-8956</t>
+  </si>
+  <si>
+    <t>(803) 984-8957</t>
+  </si>
+  <si>
+    <t>(803) 984-8958</t>
+  </si>
+  <si>
+    <t>(803) 984-8959</t>
+  </si>
+  <si>
+    <t>10000878</t>
+  </si>
+  <si>
+    <t>ADF_REL-14</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>ADF_REL-33</t>
+  </si>
+  <si>
+    <t>Contact Value</t>
+  </si>
+  <si>
+    <t>ADF_REL-09</t>
+  </si>
+  <si>
+    <t>ADF_REL-10</t>
+  </si>
+  <si>
+    <t>ADF_REL-12</t>
+  </si>
+  <si>
+    <t>ADF_REL-13</t>
+  </si>
+  <si>
+    <t>ADF_REL-15</t>
+  </si>
+  <si>
+    <t>ADF_REL-16</t>
+  </si>
+  <si>
+    <t>ADF_REL-17</t>
+  </si>
+  <si>
+    <t>ADF_REL-36</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>ADF_REL-34</t>
+  </si>
+  <si>
+    <t>Earnest Stevenson</t>
+  </si>
+  <si>
+    <t>ADF_REL-23</t>
+  </si>
+  <si>
+    <t>ADF_REL-18</t>
+  </si>
+  <si>
+    <t>ADF_REL-21</t>
+  </si>
+  <si>
+    <t>ADF_REL-22</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>ADF_REL-24</t>
+  </si>
+  <si>
+    <t>ADF_REL-25</t>
+  </si>
+  <si>
+    <t>IdaMyers</t>
+  </si>
+  <si>
+    <t>ADF_REL-26</t>
+  </si>
+  <si>
+    <t>ADF_REL-27</t>
+  </si>
+  <si>
+    <t>Betsy</t>
+  </si>
+  <si>
+    <t>ADF_REL-28</t>
+  </si>
+  <si>
+    <t>ADF_REL-29</t>
+  </si>
+  <si>
+    <t>ADF_REL-30</t>
+  </si>
+  <si>
+    <t>ADF_REL-31</t>
+  </si>
+  <si>
+    <t>ADF_REL-32</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Classification Value</t>
+  </si>
+  <si>
+    <t>ADF_REL-35</t>
+  </si>
+  <si>
+    <t>Board Member</t>
+  </si>
+  <si>
+    <t>Test Automation 2</t>
+  </si>
+  <si>
+    <t>Ambassador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger </t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Contact Select</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Donation Select</t>
+  </si>
+  <si>
+    <t>Classfication</t>
+  </si>
+  <si>
+    <t>ADF_REL-37</t>
+  </si>
+  <si>
+    <t>10000889</t>
+  </si>
+  <si>
+    <t>ExstingClassification</t>
+  </si>
+  <si>
+    <t>MOB-AMB captain</t>
+  </si>
+  <si>
+    <t>0031b00000RVR7n</t>
+  </si>
+  <si>
+    <t>ADF_REL-38</t>
+  </si>
+  <si>
+    <t>ADF_REL-39</t>
+  </si>
+  <si>
+    <t>ADF_REL-40</t>
+  </si>
+  <si>
+    <t>ADF_REL-41</t>
+  </si>
+  <si>
+    <t>ADF_REL-42</t>
+  </si>
+  <si>
+    <t>ADF_REL-43</t>
+  </si>
+  <si>
+    <t>ADF_REL-44</t>
+  </si>
+  <si>
+    <t>ADF_REL-45</t>
+  </si>
+  <si>
+    <t>ADF_REL-46</t>
+  </si>
+  <si>
+    <t>ADF_REL-47</t>
+  </si>
+  <si>
+    <t>ADF_REL-48</t>
+  </si>
+  <si>
+    <t>ADF_REL-49</t>
+  </si>
+  <si>
+    <t>ADF_REL-50</t>
+  </si>
+  <si>
+    <t>0031b00000T1wm4</t>
+  </si>
+  <si>
+    <t>Contact_Record Id</t>
+  </si>
+  <si>
+    <t>0031b00000RyUIX</t>
+  </si>
+  <si>
+    <t>Account Select</t>
+  </si>
+  <si>
+    <t>LawrenceWilkins_Church</t>
+  </si>
+  <si>
+    <t>ADF_REL-20</t>
+  </si>
+  <si>
+    <t>0031b00000T28Qi</t>
+  </si>
+  <si>
+    <t>MirandaBurke</t>
+  </si>
+  <si>
+    <t>JeanBishop</t>
+  </si>
+  <si>
+    <t>Contact_Value</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Test Ambassador 3</t>
+  </si>
+  <si>
+    <t>Duplicate Contact</t>
+  </si>
+  <si>
+    <t>Test Automation15</t>
+  </si>
+  <si>
+    <t>QA10</t>
+  </si>
+  <si>
+    <t>Test Mailing Street 10</t>
+  </si>
+  <si>
+    <t>Test Mailing City10</t>
+  </si>
+  <si>
+    <t>Test State 10</t>
+  </si>
+  <si>
+    <t>brock@yopmail.com</t>
+  </si>
+  <si>
+    <t>Pedro Brock</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>ADF_REL-19</t>
+  </si>
+  <si>
+    <t>MirandaBurke_Church</t>
+  </si>
+  <si>
+    <t>ContactRole Value</t>
+  </si>
+  <si>
+    <t>ContactRole Amount</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Test Automation26</t>
+  </si>
+  <si>
+    <t>Test Automation27</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>(923) 884-8918</t>
+  </si>
+  <si>
+    <t>(923) 884-8919</t>
+  </si>
+  <si>
+    <t>(923) 884-8920</t>
+  </si>
+  <si>
+    <t>QA8-Salutation Household</t>
+  </si>
+  <si>
+    <t>Kelly Hunte</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Benjamin Lynch</t>
+  </si>
+  <si>
+    <t>Test Donation</t>
+  </si>
+  <si>
+    <t>Kelly Hunter</t>
+  </si>
+  <si>
+    <t>Test Donation2</t>
+  </si>
+  <si>
+    <t>Test Donation3</t>
+  </si>
+  <si>
+    <t>10000890</t>
+  </si>
+  <si>
+    <t>Larry Baldwin</t>
+  </si>
+  <si>
+    <t>0033F00000ADOBE</t>
+  </si>
+  <si>
+    <t>Campaign Segment Name</t>
+  </si>
+  <si>
+    <t>Test Segment 3</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Test Campaign1</t>
+  </si>
+  <si>
+    <t>Test International</t>
+  </si>
+  <si>
+    <t>TestOrgAccount-Jun4</t>
+  </si>
+  <si>
+    <t>FirstAccount</t>
+  </si>
+  <si>
+    <t>SecondAccount</t>
+  </si>
+  <si>
+    <t>FirstContact</t>
+  </si>
+  <si>
+    <t>SecondContact</t>
+  </si>
+  <si>
+    <t>ADF_REG-44</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>ADF_REG-45</t>
+  </si>
+  <si>
+    <t>ADF_REG-46</t>
+  </si>
+  <si>
+    <t>Test Donation3 Household</t>
+  </si>
+  <si>
+    <t>ADF_REG-47</t>
+  </si>
+  <si>
+    <t>ADF_REL-51</t>
+  </si>
+  <si>
+    <t>ADF_REL-52</t>
+  </si>
+  <si>
+    <t>Test Automation31</t>
+  </si>
+  <si>
+    <t>Test Automation32</t>
+  </si>
+  <si>
+    <t>Test Automation33</t>
+  </si>
+  <si>
+    <t>Test Automation34</t>
+  </si>
+  <si>
+    <t>Test Automation35</t>
+  </si>
+  <si>
+    <t>Test Automation36</t>
+  </si>
+  <si>
+    <t>QA12</t>
+  </si>
+  <si>
+    <t>QA13</t>
+  </si>
+  <si>
+    <t>QA14</t>
+  </si>
+  <si>
+    <t>QA15</t>
+  </si>
+  <si>
+    <t>QA16</t>
+  </si>
+  <si>
+    <t>QA18</t>
+  </si>
+  <si>
+    <t>QA28-Salutation</t>
+  </si>
+  <si>
+    <t>QA29_Greeting</t>
+  </si>
+  <si>
+    <t>0033F00000AT0N3</t>
+  </si>
+  <si>
+    <t>BillyBrewer_Church</t>
+  </si>
+  <si>
+    <t>0033F00000ADOG4</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
   </si>
 </sst>
 </file>
@@ -693,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1418,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
@@ -994,17 +1426,18 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1013,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1040,42 +1473,48 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="O1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="S1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1084,41 +1523,36 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1127,233 +1561,445 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R9" t="s">
+        <v>178</v>
+      </c>
+      <c r="S9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S20" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="6" t="s">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="L29" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{3A54CB49-4D81-4A1C-B61C-5E4DE21185F5}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{BF74F309-8126-49F4-AFB3-A3619E30E095}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{25A5AE6F-951F-4B38-A1D9-F77FEF8505F2}"/>
-    <hyperlink ref="L5:L7" r:id="rId4" display="testauto2@yopmail.com" xr:uid="{2247CD11-3722-4005-A865-F540225EF96A}"/>
+    <hyperlink ref="L29" r:id="rId2" xr:uid="{02C5672F-E7E2-4B51-B2D6-3FB90F98ABFE}"/>
+    <hyperlink ref="L10" r:id="rId3" xr:uid="{782553DD-8FA3-498E-A566-6DF6D1BE6C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1362,26 +2008,27 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1404,68 +2051,68 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
+      <c r="A4" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1475,36 +2122,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA7CEF-DD08-47C3-9813-E1493B0F8BB1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -1514,15 +2408,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56689F5D-9C79-45D5-8142-2425B09090D7}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
@@ -1532,8 +2426,7 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="29.140625" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="32.28515625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="27.42578125" customWidth="1"/>
@@ -1562,261 +2455,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK1" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="W2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1871,100 +2736,605 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
         <v>88</v>
       </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9F2BE3-5220-47BC-8CAC-18720E1192B0}">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>85</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="T14" t="s">
+        <v>235</v>
+      </c>
+      <c r="U14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="T15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" t="s">
+        <v>340</v>
+      </c>
+      <c r="T16" t="s">
+        <v>238</v>
+      </c>
+      <c r="U16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097154B5-F4E8-43E0-89A5-7FBAE3426945}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E00F9-4F76-47D5-B484-8A926980C293}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="6">
+        <v>43490</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\Salesforce_Automation-Demo\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\ADF_Project_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E7645-2BE1-49FD-9894-4DBB2335176C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE2206-EF90-4960-A412-101348457C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Church_Alliance" sheetId="5" r:id="rId4"/>
     <sheet name="Ministry_Alliance" sheetId="6" r:id="rId5"/>
     <sheet name="Contact_Selection" sheetId="8" r:id="rId6"/>
+    <sheet name="Campaign_Segment" sheetId="9" r:id="rId7"/>
+    <sheet name="Relationship" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="344">
   <si>
     <t>FirstName</t>
   </si>
@@ -107,9 +109,6 @@
     <t>TestOrgAccount-Jun2</t>
   </si>
   <si>
-    <t>TestOrgAccount-Jun3</t>
-  </si>
-  <si>
     <t>Test Billing Street 1</t>
   </si>
   <si>
@@ -542,18 +541,6 @@
     <t>9238848910</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile </t>
-  </si>
-  <si>
-    <t>7983885788</t>
-  </si>
-  <si>
-    <t>7983885787</t>
-  </si>
-  <si>
-    <t>7983885786</t>
-  </si>
-  <si>
     <t>Work Phone</t>
   </si>
   <si>
@@ -584,9 +571,6 @@
     <t>Work</t>
   </si>
   <si>
-    <t>QA7</t>
-  </si>
-  <si>
     <t>QA8-Salutation</t>
   </si>
   <si>
@@ -617,21 +601,6 @@
     <t>(923) 884-8913</t>
   </si>
   <si>
-    <t>(798) 388-5785</t>
-  </si>
-  <si>
-    <t>(798) 388-5786</t>
-  </si>
-  <si>
-    <t>(798) 388-5787</t>
-  </si>
-  <si>
-    <t>(798) 388-5788</t>
-  </si>
-  <si>
-    <t>(798) 388-5789</t>
-  </si>
-  <si>
     <t>(923) 884-8914</t>
   </si>
   <si>
@@ -674,9 +643,6 @@
     <t>ADF_REL-33</t>
   </si>
   <si>
-    <t>JuanaMoore_Church $200.00 Membership 10/24/2018</t>
-  </si>
-  <si>
     <t>Contact Value</t>
   </si>
   <si>
@@ -707,9 +673,6 @@
     <t>Kerry</t>
   </si>
   <si>
-    <t>QA9</t>
-  </si>
-  <si>
     <t>ADF_REL-34</t>
   </si>
   <si>
@@ -722,9 +685,6 @@
     <t>ADF_REL-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lisa</t>
-  </si>
-  <si>
     <t>ADF_REL-21</t>
   </si>
   <si>
@@ -767,9 +727,6 @@
     <t>ADF_REL-32</t>
   </si>
   <si>
-    <t>Test Ambassador1</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
@@ -800,51 +757,24 @@
     <t>Test3</t>
   </si>
   <si>
-    <t>Brooks</t>
-  </si>
-  <si>
     <t>Donation Select</t>
   </si>
   <si>
-    <t>JuanaMoore</t>
-  </si>
-  <si>
-    <t>Ginger</t>
-  </si>
-  <si>
     <t>Classfication</t>
   </si>
   <si>
-    <t>Test Automation</t>
-  </si>
-  <si>
     <t>ADF_REL-37</t>
   </si>
   <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
     <t>10000889</t>
   </si>
   <si>
-    <t>Leon Greene</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
     <t>ExstingClassification</t>
   </si>
   <si>
     <t>MOB-AMB captain</t>
   </si>
   <si>
-    <t>0031b00000RjbXV</t>
-  </si>
-  <si>
-    <t>0031b00000T0osm</t>
-  </si>
-  <si>
     <t>0031b00000RVR7n</t>
   </si>
   <si>
@@ -905,12 +835,6 @@
     <t>ADF_REL-20</t>
   </si>
   <si>
-    <t>Test Automation 3</t>
-  </si>
-  <si>
-    <t>Walter Holt Household</t>
-  </si>
-  <si>
     <t>0031b00000T28Qi</t>
   </si>
   <si>
@@ -932,9 +856,6 @@
     <t>Walter</t>
   </si>
   <si>
-    <t>Lawren</t>
-  </si>
-  <si>
     <t>Test Ambassador 3</t>
   </si>
   <si>
@@ -983,22 +904,166 @@
     <t>100</t>
   </si>
   <si>
-    <t>Test Automation16</t>
-  </si>
-  <si>
-    <t>Test Automation17</t>
-  </si>
-  <si>
-    <t>Test Automation18</t>
-  </si>
-  <si>
-    <t>Test Automation19</t>
-  </si>
-  <si>
-    <t>Test Automation20</t>
-  </si>
-  <si>
-    <t>Test Automation21</t>
+    <t>Test Automation26</t>
+  </si>
+  <si>
+    <t>Test Automation27</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>(923) 884-8918</t>
+  </si>
+  <si>
+    <t>(923) 884-8919</t>
+  </si>
+  <si>
+    <t>(923) 884-8920</t>
+  </si>
+  <si>
+    <t>QA8-Salutation Household</t>
+  </si>
+  <si>
+    <t>Kelly Hunte</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Benjamin Lynch</t>
+  </si>
+  <si>
+    <t>Test Donation</t>
+  </si>
+  <si>
+    <t>Kelly Hunter</t>
+  </si>
+  <si>
+    <t>Test Donation2</t>
+  </si>
+  <si>
+    <t>Test Donation3</t>
+  </si>
+  <si>
+    <t>10000890</t>
+  </si>
+  <si>
+    <t>Larry Baldwin</t>
+  </si>
+  <si>
+    <t>0033F00000ADOBE</t>
+  </si>
+  <si>
+    <t>Campaign Segment Name</t>
+  </si>
+  <si>
+    <t>Test Segment 3</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Test Campaign1</t>
+  </si>
+  <si>
+    <t>Test International</t>
+  </si>
+  <si>
+    <t>TestOrgAccount-Jun4</t>
+  </si>
+  <si>
+    <t>FirstAccount</t>
+  </si>
+  <si>
+    <t>SecondAccount</t>
+  </si>
+  <si>
+    <t>FirstContact</t>
+  </si>
+  <si>
+    <t>SecondContact</t>
+  </si>
+  <si>
+    <t>ADF_REG-44</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>ADF_REG-45</t>
+  </si>
+  <si>
+    <t>ADF_REG-46</t>
+  </si>
+  <si>
+    <t>Test Donation3 Household</t>
+  </si>
+  <si>
+    <t>ADF_REG-47</t>
+  </si>
+  <si>
+    <t>ADF_REL-51</t>
+  </si>
+  <si>
+    <t>ADF_REL-52</t>
+  </si>
+  <si>
+    <t>Test Automation31</t>
+  </si>
+  <si>
+    <t>Test Automation32</t>
+  </si>
+  <si>
+    <t>Test Automation33</t>
+  </si>
+  <si>
+    <t>Test Automation34</t>
+  </si>
+  <si>
+    <t>Test Automation35</t>
+  </si>
+  <si>
+    <t>Test Automation36</t>
+  </si>
+  <si>
+    <t>QA12</t>
+  </si>
+  <si>
+    <t>QA13</t>
+  </si>
+  <si>
+    <t>QA14</t>
+  </si>
+  <si>
+    <t>QA15</t>
+  </si>
+  <si>
+    <t>QA16</t>
+  </si>
+  <si>
+    <t>QA18</t>
+  </si>
+  <si>
+    <t>QA28-Salutation</t>
+  </si>
+  <si>
+    <t>QA29_Greeting</t>
+  </si>
+  <si>
+    <t>0033F00000AT0N3</t>
+  </si>
+  <si>
+    <t>BillyBrewer_Church</t>
+  </si>
+  <si>
+    <t>0033F00000ADOG4</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1344,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1418,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
@@ -1361,19 +1426,18 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
     <col min="20" max="20" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1382,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1409,48 +1473,48 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="O1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>140</v>
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
       </c>
       <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
         <v>127</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1459,41 +1523,36 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1502,450 +1561,432 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>169</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>154</v>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>154</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="R7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>157</v>
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="s">
+        <v>156</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="6"/>
+        <v>137</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="R8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="P9" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="R9" t="s">
+        <v>178</v>
       </c>
       <c r="S9" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="S20" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="S25" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="S26" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="S27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="S28" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>307</v>
+      <c r="G29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="3" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1967,7 +2008,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,14 +2020,15 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>131</v>
+      <c r="A1" t="s">
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -2012,65 +2054,65 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2080,18 +2122,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA7CEF-DD08-47C3-9813-E1493B0F8BB1}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -2101,214 +2143,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>131</v>
+      <c r="A1" t="s">
+        <v>130</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="J1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10"/>
-      <c r="D10" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10"/>
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" t="s">
+        <v>300</v>
+      </c>
       <c r="H10" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>233</v>
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>239</v>
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,15 +2408,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56689F5D-9C79-45D5-8142-2425B09090D7}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
@@ -2335,8 +2426,7 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="29.140625" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="32.28515625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="27.42578125" customWidth="1"/>
@@ -2365,261 +2455,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
         <v>115</v>
       </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Z2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W2" t="s">
-        <v>103</v>
-      </c>
-      <c r="X2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AL2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2674,100 +2736,100 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" t="s">
-        <v>90</v>
-      </c>
       <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
         <v>76</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>83</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2777,17 +2839,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9F2BE3-5220-47BC-8CAC-18720E1192B0}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
@@ -2797,304 +2858,486 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>131</v>
+      <c r="A1" t="s">
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
         <v>296</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>300</v>
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" t="s">
-        <v>224</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="U12" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+        <v>230</v>
+      </c>
       <c r="T13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="T14" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="U14" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>270</v>
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="T15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>271</v>
+        <v>234</v>
+      </c>
+      <c r="G16" t="s">
+        <v>340</v>
+      </c>
+      <c r="T16" t="s">
+        <v>238</v>
+      </c>
+      <c r="U16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>287</v>
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>275</v>
+        <v>249</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" t="s">
-        <v>310</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>279</v>
+        <v>253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>284</v>
+        <v>258</v>
+      </c>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097154B5-F4E8-43E0-89A5-7FBAE3426945}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E00F9-4F76-47D5-B484-8A926980C293}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="6">
+        <v>43490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\ADF_Project_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE2206-EF90-4960-A412-101348457C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C60B1-20CF-4C58-BF10-FDA757F4F67F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -394,24 +394,6 @@
     <t>bishop2@yopmail.com</t>
   </si>
   <si>
-    <t>8823938753</t>
-  </si>
-  <si>
-    <t>JeanMSTQA_Church</t>
-  </si>
-  <si>
-    <t>page2@yopmail.com</t>
-  </si>
-  <si>
-    <t>98894884767</t>
-  </si>
-  <si>
-    <t>rose2@yopmail.com</t>
-  </si>
-  <si>
-    <t>8823938767</t>
-  </si>
-  <si>
     <t>Spouse1</t>
   </si>
   <si>
@@ -1064,6 +1046,24 @@
   </si>
   <si>
     <t>Benjamin</t>
+  </si>
+  <si>
+    <t>DavidMSTQA_Church</t>
+  </si>
+  <si>
+    <t>(882) 393-8754</t>
+  </si>
+  <si>
+    <t>(982) 393-8756</t>
+  </si>
+  <si>
+    <t>page3@yopmail.com</t>
+  </si>
+  <si>
+    <t>rose3@yopmail.com</t>
+  </si>
+  <si>
+    <t>(782) 393-8754</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1476,45 +1476,45 @@
         <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" t="s">
-        <v>175</v>
-      </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="T1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1523,36 +1523,36 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1561,36 +1561,36 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -1605,345 +1605,345 @@
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
         <v>143</v>
       </c>
-      <c r="G5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" t="s">
-        <v>149</v>
-      </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="S9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="S25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
@@ -1951,42 +1951,42 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S28" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2144,16 +2144,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E1" t="s">
         <v>42</v>
@@ -2165,240 +2165,240 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s">
-        <v>290</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56689F5D-9C79-45D5-8142-2425B09090D7}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2575,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -2596,7 +2596,7 @@
         <v>119</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="J2" t="s">
         <v>95</v>
@@ -2617,10 +2617,10 @@
         <v>99</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>123</v>
+        <v>340</v>
       </c>
       <c r="R2" t="s">
         <v>97</v>
@@ -2632,10 +2632,10 @@
         <v>101</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="W2" t="s">
         <v>102</v>
@@ -2647,7 +2647,7 @@
         <v>117</v>
       </c>
       <c r="Z2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AB2" t="s">
         <v>105</v>
@@ -2841,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9F2BE3-5220-47BC-8CAC-18720E1192B0}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2859,82 +2859,82 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" t="s">
-        <v>245</v>
-      </c>
       <c r="G1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2942,12 +2942,12 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2955,216 +2955,216 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="T13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="U14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="T16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -3197,39 +3197,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3257,36 +3257,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F2" s="6">
         <v>43490</v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6">
         <v>43490</v>
@@ -3308,13 +3308,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F4" s="6">
         <v>43490</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F5" s="6">
         <v>43490</v>

--- a/TestData/TestInputData.xlsx
+++ b/TestData/TestInputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Robot_Framework\ADF_Project_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C60B1-20CF-4C58-BF10-FDA757F4F67F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6C3A72-6B12-433E-9312-C27CA56740BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Contact_Selection" sheetId="8" r:id="rId6"/>
     <sheet name="Campaign_Segment" sheetId="9" r:id="rId7"/>
     <sheet name="Relationship" sheetId="10" r:id="rId8"/>
+    <sheet name="Designation" sheetId="12" r:id="rId9"/>
+    <sheet name="Object_Selection" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="353">
   <si>
     <t>FirstName</t>
   </si>
@@ -328,24 +330,9 @@
     <t>Senior_Pastor</t>
   </si>
   <si>
-    <t xml:space="preserve">Ginger	</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawrence	</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ellis	</t>
   </si>
   <si>
-    <t>Larson</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
@@ -367,15 +354,9 @@
     <t>VISA</t>
   </si>
   <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
     <t>11/22</t>
   </si>
   <si>
-    <t>884</t>
-  </si>
-  <si>
     <t>Church Size</t>
   </si>
   <si>
@@ -391,9 +372,6 @@
     <t>PayerZip Code</t>
   </si>
   <si>
-    <t>bishop2@yopmail.com</t>
-  </si>
-  <si>
     <t>Spouse1</t>
   </si>
   <si>
@@ -1048,22 +1026,73 @@
     <t>Benjamin</t>
   </si>
   <si>
-    <t>DavidMSTQA_Church</t>
-  </si>
-  <si>
-    <t>(882) 393-8754</t>
-  </si>
-  <si>
-    <t>(982) 393-8756</t>
-  </si>
-  <si>
-    <t>page3@yopmail.com</t>
-  </si>
-  <si>
-    <t>rose3@yopmail.com</t>
-  </si>
-  <si>
-    <t>(782) 393-8754</t>
+    <t>SheltonMSTQA_Church</t>
+  </si>
+  <si>
+    <t>bishop4@yopmail.com</t>
+  </si>
+  <si>
+    <t>(992) 393-8754</t>
+  </si>
+  <si>
+    <t>Ginger2</t>
+  </si>
+  <si>
+    <t>Page2</t>
+  </si>
+  <si>
+    <t>page36@yopmail.com</t>
+  </si>
+  <si>
+    <t>(972) 393-8756</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>(782) 393-8764</t>
+  </si>
+  <si>
+    <t>89984</t>
+  </si>
+  <si>
+    <t>341111111111111</t>
+  </si>
+  <si>
+    <t>8845</t>
+  </si>
+  <si>
+    <t>glover@yopmail.com</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Membership Details</t>
+  </si>
+  <si>
+    <t>Campaign Segments</t>
+  </si>
+  <si>
+    <t>Relationship Type Details</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Designation Name</t>
+  </si>
+  <si>
+    <t>ADF_REG-54</t>
+  </si>
+  <si>
+    <t>Test Designation6</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1446,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1476,45 +1505,45 @@
         <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" t="s">
         <v>159</v>
       </c>
-      <c r="P1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>167</v>
-      </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="S1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="T1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1523,36 +1552,36 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1561,36 +1590,36 @@
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -1605,345 +1634,345 @@
         <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" t="s">
         <v>139</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="I5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
         <v>140</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="I6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" t="s">
         <v>141</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
         <v>142</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="S9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="S20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="S25" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="S26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
@@ -1951,42 +1980,42 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="S28" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H29" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2000,6 +2029,78 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF795B6-931A-4A10-B1A5-A5977DA05BA2}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2025,7 +2126,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -2071,7 +2172,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2094,10 +2195,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2144,16 +2245,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
         <v>42</v>
@@ -2165,240 +2266,240 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2410,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56689F5D-9C79-45D5-8142-2425B09090D7}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2590,7 @@
         <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
         <v>60</v>
@@ -2528,7 +2629,7 @@
         <v>70</v>
       </c>
       <c r="Y1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
         <v>73</v>
@@ -2555,7 +2656,7 @@
         <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AI1" t="s">
         <v>84</v>
@@ -2575,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -2593,10 +2694,10 @@
         <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J2" t="s">
         <v>95</v>
@@ -2605,82 +2706,82 @@
         <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
         <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="R2" t="s">
         <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="W2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X2" t="s">
-        <v>103</v>
+        <v>338</v>
       </c>
       <c r="Y2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="s">
         <v>93</v>
       </c>
       <c r="AB2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AK2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="AL2" s="3" t="s">
-        <v>113</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2800,7 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,82 +2960,82 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2942,12 +3043,12 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2955,216 +3056,216 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="T13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="T14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="U14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="T15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="T16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="U16" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" t="s">
         <v>232</v>
       </c>
-      <c r="E18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18" t="s">
-        <v>240</v>
-      </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H24" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -3197,39 +3298,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3343,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,40 +3354,41 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F2" s="6">
         <v>43490</v>
@@ -3294,13 +3396,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6">
         <v>43490</v>
@@ -3308,13 +3410,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F4" s="6">
         <v>43490</v>
@@ -3322,19 +3424,61 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F5" s="6">
         <v>43490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57718021-3C7D-440F-A363-5C18F0D52D97}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
